--- a/public/templates/template-spd.xlsx
+++ b/public/templates/template-spd.xlsx
@@ -24,17 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>tgl</t>
   </si>
   <si>
-    <t>bln</t>
-  </si>
-  <si>
-    <t>thn</t>
-  </si>
-  <si>
     <t>nip</t>
   </si>
   <si>
@@ -72,6 +66,9 @@
   </si>
   <si>
     <t>lama</t>
+  </si>
+  <si>
+    <t>uang_penginapan</t>
   </si>
 </sst>
 </file>
@@ -107,8 +104,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,36 +387,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
@@ -428,10 +426,10 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -440,13 +438,13 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
       </c>
       <c r="L1" t="s">
         <v>10</v>
@@ -455,13 +453,10 @@
         <v>11</v>
       </c>
       <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
         <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/public/templates/template-spd.xlsx
+++ b/public/templates/template-spd.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Freelance\TA - Muhammad Ricky\backend-express\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SIP\SIP-be\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7955DF2-FE17-40B1-BAF0-F0BABE67A5DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,9 +60,6 @@
     <t>uang_transport_pulang</t>
   </si>
   <si>
-    <t>uang_transport_dpd</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -69,12 +67,15 @@
   </si>
   <si>
     <t>uang_penginapan</t>
+  </si>
+  <si>
+    <t>uang_transport_dpr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -386,33 +387,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -438,7 +439,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -450,13 +451,13 @@
         <v>10</v>
       </c>
       <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
         <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
